--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3826.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3826.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.229565294806653</v>
+        <v>5.207376956939697</v>
       </c>
       <c r="B1">
-        <v>1.545301017678117</v>
+        <v>3.845653057098389</v>
       </c>
       <c r="C1">
-        <v>2.238382130415682</v>
+        <v>4.05192756652832</v>
       </c>
       <c r="D1">
-        <v>5.302780562415149</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>2.839811252088619</v>
+        <v>3.510376453399658</v>
       </c>
     </row>
   </sheetData>
